--- a/Assets/JoyconFrameWork/4_StringTable/Table/StringTable.xlsx
+++ b/Assets/JoyconFrameWork/4_StringTable/Table/StringTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="KR" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8221" workbookViewId="0">
+      <selection activeCell="C8239" sqref="A7:C8239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
